--- a/PharmacyManager/Database.xlsx
+++ b/PharmacyManager/Database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>aa</t>
   </si>
@@ -31,7 +31,13 @@
     <t>bb2</t>
   </si>
   <si>
-    <t>cc3</t>
+    <t>dd2</t>
+  </si>
+  <si>
+    <t>cc2</t>
+  </si>
+  <si>
+    <t>ee2</t>
   </si>
 </sst>
 </file>
@@ -373,15 +379,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -400,7 +406,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PharmacyManager/Database.xlsx
+++ b/PharmacyManager/Database.xlsx
@@ -14,22 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>aa2</t>
-  </si>
-  <si>
-    <t>bb2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>dd2</t>
   </si>
@@ -38,6 +23,48 @@
   </si>
   <si>
     <t>ee2</t>
+  </si>
+  <si>
+    <t>Muhammad Zaim Mohamed Pauzi</t>
+  </si>
+  <si>
+    <t>Panadol</t>
+  </si>
+  <si>
+    <t>Ubat 2</t>
+  </si>
+  <si>
+    <t>Ubat 3</t>
+  </si>
+  <si>
+    <t>Ubat 4</t>
+  </si>
+  <si>
+    <t>Ubat 5</t>
+  </si>
+  <si>
+    <t>Ubat 6</t>
+  </si>
+  <si>
+    <t>Ubat 7</t>
+  </si>
+  <si>
+    <t>Ubat 8</t>
+  </si>
+  <si>
+    <t>Ubat 9</t>
+  </si>
+  <si>
+    <t>Ubat 10</t>
+  </si>
+  <si>
+    <t>ff2</t>
+  </si>
+  <si>
+    <t>gg2</t>
+  </si>
+  <si>
+    <t>Abdullah Othman</t>
   </si>
 </sst>
 </file>
@@ -379,40 +406,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>900826105911</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PharmacyManager/Database.xlsx
+++ b/PharmacyManager/Database.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>dd2</t>
-  </si>
-  <si>
     <t>cc2</t>
   </si>
   <si>
@@ -61,10 +58,13 @@
     <t>ff2</t>
   </si>
   <si>
-    <t>gg2</t>
-  </si>
-  <si>
     <t>Abdullah Othman</t>
+  </si>
+  <si>
+    <t>nameA</t>
+  </si>
+  <si>
+    <t>nameB</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,37 +423,37 @@
         <v>900826105911</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -461,22 +461,22 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/PharmacyManager/Database.xlsx
+++ b/PharmacyManager/Database.xlsx
@@ -14,57 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>cc2</t>
-  </si>
-  <si>
-    <t>ee2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>Muhammad Zaim Mohamed Pauzi</t>
-  </si>
-  <si>
-    <t>Panadol</t>
-  </si>
-  <si>
-    <t>Ubat 2</t>
-  </si>
-  <si>
-    <t>Ubat 3</t>
-  </si>
-  <si>
-    <t>Ubat 4</t>
-  </si>
-  <si>
-    <t>Ubat 5</t>
-  </si>
-  <si>
-    <t>Ubat 6</t>
-  </si>
-  <si>
-    <t>Ubat 7</t>
-  </si>
-  <si>
-    <t>Ubat 8</t>
-  </si>
-  <si>
-    <t>Ubat 9</t>
-  </si>
-  <si>
-    <t>Ubat 10</t>
-  </si>
-  <si>
-    <t>ff2</t>
   </si>
   <si>
     <t>Abdullah Othman</t>
   </si>
   <si>
-    <t>nameA</t>
+    <t>Name1</t>
   </si>
   <si>
-    <t>nameB</t>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Name3</t>
   </si>
 </sst>
 </file>
@@ -409,7 +373,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,37 +387,37 @@
         <v>900826105911</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -461,22 +425,37 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PharmacyManager/Database.xlsx
+++ b/PharmacyManager/Database.xlsx
@@ -370,36 +370,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>900826105911</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -419,32 +417,35 @@
       <c r="L1" t="s">
         <v>2</v>
       </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123</v>
+        <v>123456</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2">
+        <v>850508609999</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
@@ -455,6 +456,9 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
         <v>2</v>
       </c>
     </row>
